--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Inhbb</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhbb</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H2">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I2">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J2">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>5.480026121405499</v>
+        <v>4.427104831089999</v>
       </c>
       <c r="R2">
-        <v>21.920104485622</v>
+        <v>17.70841932436</v>
       </c>
       <c r="S2">
-        <v>0.1147459396708581</v>
+        <v>0.352320753254492</v>
       </c>
       <c r="T2">
-        <v>0.08166385811911069</v>
+        <v>0.3090695619565617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H3">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I3">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J3">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.4343403672581667</v>
+        <v>0.4335520368233333</v>
       </c>
       <c r="R3">
-        <v>2.606042203549</v>
+        <v>2.60131222094</v>
       </c>
       <c r="S3">
-        <v>0.009094627009778091</v>
+        <v>0.03450322186091255</v>
       </c>
       <c r="T3">
-        <v>0.009708870726534825</v>
+        <v>0.04540136609099827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H4">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I4">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J4">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>1.171765353107667</v>
+        <v>0.82419185379</v>
       </c>
       <c r="R4">
-        <v>7.030592118646</v>
+        <v>4.94515112274</v>
       </c>
       <c r="S4">
-        <v>0.02453552474702609</v>
+        <v>0.06559137536438557</v>
       </c>
       <c r="T4">
-        <v>0.02619263414766305</v>
+        <v>0.08630898463149474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H5">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I5">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J5">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>5.14881092580575</v>
+        <v>4.64260332172</v>
       </c>
       <c r="R5">
-        <v>20.595243703223</v>
+        <v>18.57041328688</v>
       </c>
       <c r="S5">
-        <v>0.1078106444714599</v>
+        <v>0.3694706951331609</v>
       </c>
       <c r="T5">
-        <v>0.07672805851868575</v>
+        <v>0.3241141625798806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H6">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I6">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J6">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>3.4142814769855</v>
+        <v>0.1155458175733333</v>
       </c>
       <c r="R6">
-        <v>20.485688861913</v>
+        <v>0.69327490544</v>
       </c>
       <c r="S6">
-        <v>0.0714914359344377</v>
+        <v>0.009195442853974589</v>
       </c>
       <c r="T6">
-        <v>0.07631990941415619</v>
+        <v>0.01209990386014092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H7">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I7">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J7">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>2.845465060849167</v>
+        <v>0.95013626363</v>
       </c>
       <c r="R7">
-        <v>17.072790365095</v>
+        <v>5.70081758178</v>
       </c>
       <c r="S7">
-        <v>0.05958102296855327</v>
+        <v>0.07561436579176521</v>
       </c>
       <c r="T7">
-        <v>0.06360507683651562</v>
+        <v>0.09949782419999753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.649071</v>
       </c>
       <c r="I8">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J8">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>0.415795098957</v>
+        <v>0.3365158361609999</v>
       </c>
       <c r="R8">
-        <v>2.494770593741999</v>
+        <v>2.019095016966</v>
       </c>
       <c r="S8">
-        <v>0.008706308744404609</v>
+        <v>0.02678082345050719</v>
       </c>
       <c r="T8">
-        <v>0.00929432576111624</v>
+        <v>0.03523978063834964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.649071</v>
       </c>
       <c r="I9">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J9">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
         <v>0.032955426121</v>
@@ -1013,10 +1013,10 @@
         <v>0.296598835089</v>
       </c>
       <c r="S9">
-        <v>0.0006900516993407722</v>
+        <v>0.002622680283790515</v>
       </c>
       <c r="T9">
-        <v>0.001104985845431946</v>
+        <v>0.005176615165853983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.649071</v>
       </c>
       <c r="I10">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J10">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>0.088907293534</v>
+        <v>0.062648981991</v>
       </c>
       <c r="R10">
-        <v>0.8001656418059999</v>
+        <v>0.563840837919</v>
       </c>
       <c r="S10">
-        <v>0.001861624509471338</v>
+        <v>0.004985772275074348</v>
       </c>
       <c r="T10">
-        <v>0.002981035673762124</v>
+        <v>0.009840858045930885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.649071</v>
       </c>
       <c r="I11">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J11">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>0.3906642598005</v>
+        <v>0.352896440988</v>
       </c>
       <c r="R11">
-        <v>2.343985558803</v>
+        <v>2.117378645928</v>
       </c>
       <c r="S11">
-        <v>0.008180095604203337</v>
+        <v>0.02808443546142762</v>
       </c>
       <c r="T11">
-        <v>0.008732572613095412</v>
+        <v>0.03695514989826999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,40 +1169,40 @@
         <v>0.649071</v>
       </c>
       <c r="I12">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J12">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>0.259057433877</v>
+        <v>0.008782940296</v>
       </c>
       <c r="R12">
-        <v>2.331516904893</v>
+        <v>0.07904646266399999</v>
       </c>
       <c r="S12">
-        <v>0.005424388136185301</v>
+        <v>0.0006989697011791957</v>
       </c>
       <c r="T12">
-        <v>0.008686120353503749</v>
+        <v>0.001379618086870729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.649071</v>
       </c>
       <c r="I13">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J13">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>0.215898683755</v>
+        <v>0.07222234652700001</v>
       </c>
       <c r="R13">
-        <v>1.943088153795</v>
+        <v>0.6500011187429999</v>
       </c>
       <c r="S13">
-        <v>0.004520689644963784</v>
+        <v>0.005747646035283662</v>
       </c>
       <c r="T13">
-        <v>0.007239020024221246</v>
+        <v>0.01134463541671496</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H14">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I14">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J14">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N14">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O14">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P14">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q14">
-        <v>4.1792800979685</v>
+        <v>0.1190583593445</v>
       </c>
       <c r="R14">
-        <v>16.717120391874</v>
+        <v>0.476233437378</v>
       </c>
       <c r="S14">
-        <v>0.08750969637095753</v>
+        <v>0.009474980251409701</v>
       </c>
       <c r="T14">
-        <v>0.06228002009468305</v>
+        <v>0.008311823725396546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H15">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I15">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J15">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P15">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q15">
-        <v>0.3312447810305</v>
+        <v>0.0116595373645</v>
       </c>
       <c r="R15">
-        <v>1.987468686183</v>
+        <v>0.069957224187</v>
       </c>
       <c r="S15">
-        <v>0.006935914686965748</v>
+        <v>0.0009278969311978381</v>
       </c>
       <c r="T15">
-        <v>0.007404360727891773</v>
+        <v>0.001220981288004061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,46 +1411,46 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H16">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I16">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J16">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N16">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O16">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P16">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q16">
-        <v>0.893633627147</v>
+        <v>0.0221650341795</v>
       </c>
       <c r="R16">
-        <v>5.361801762882</v>
+        <v>0.132990205077</v>
       </c>
       <c r="S16">
-        <v>0.01871174114808058</v>
+        <v>0.001763952252314363</v>
       </c>
       <c r="T16">
-        <v>0.01997551693761319</v>
+        <v>0.002321111990561429</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H17">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I17">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J17">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N17">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O17">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P17">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q17">
-        <v>3.92668256568525</v>
+        <v>0.124853771406</v>
       </c>
       <c r="R17">
-        <v>15.706730262741</v>
+        <v>0.499415085624</v>
       </c>
       <c r="S17">
-        <v>0.08222057172843711</v>
+        <v>0.009936194525937084</v>
       </c>
       <c r="T17">
-        <v>0.05851578821318863</v>
+        <v>0.008716418948583202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,46 +1535,46 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H18">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I18">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J18">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N18">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O18">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P18">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q18">
-        <v>2.603863249828501</v>
+        <v>0.003107379652</v>
       </c>
       <c r="R18">
-        <v>15.623179498971</v>
+        <v>0.018644277912</v>
       </c>
       <c r="S18">
-        <v>0.05452213707684931</v>
+        <v>0.0002472935205762388</v>
       </c>
       <c r="T18">
-        <v>0.05820451790319847</v>
+        <v>0.0003254033407336032</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H19">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I19">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J19">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N19">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O19">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P19">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q19">
-        <v>2.1700618272275</v>
+        <v>0.0255520637115</v>
       </c>
       <c r="R19">
-        <v>13.020370963365</v>
+        <v>0.153312382269</v>
       </c>
       <c r="S19">
-        <v>0.04543879499706008</v>
+        <v>0.002033501052611382</v>
       </c>
       <c r="T19">
-        <v>0.04850769428165233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H20">
-        <v>6.190555</v>
-      </c>
-      <c r="I20">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J20">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.921801</v>
-      </c>
-      <c r="N20">
-        <v>3.843602</v>
-      </c>
-      <c r="O20">
-        <v>0.2963026861879742</v>
-      </c>
-      <c r="P20">
-        <v>0.2443427896918877</v>
-      </c>
-      <c r="Q20">
-        <v>3.965671596518332</v>
-      </c>
-      <c r="R20">
-        <v>23.79402957911</v>
-      </c>
-      <c r="S20">
-        <v>0.0830369607164974</v>
-      </c>
-      <c r="T20">
-        <v>0.08864520955659233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H21">
-        <v>6.190555</v>
-      </c>
-      <c r="I21">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J21">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1523196666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.456959</v>
-      </c>
-      <c r="O21">
-        <v>0.02348459928608122</v>
-      </c>
-      <c r="P21">
-        <v>0.02904947932559493</v>
-      </c>
-      <c r="Q21">
-        <v>0.3143144246938888</v>
-      </c>
-      <c r="R21">
-        <v>2.828829822245</v>
-      </c>
-      <c r="S21">
-        <v>0.006581410966770221</v>
-      </c>
-      <c r="T21">
-        <v>0.01053887117182551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H22">
-        <v>6.190555</v>
-      </c>
-      <c r="I22">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J22">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.4109286666666667</v>
-      </c>
-      <c r="N22">
-        <v>1.232786</v>
-      </c>
-      <c r="O22">
-        <v>0.06335685524410488</v>
-      </c>
-      <c r="P22">
-        <v>0.07836981309019599</v>
-      </c>
-      <c r="Q22">
-        <v>0.8479588373588888</v>
-      </c>
-      <c r="R22">
-        <v>7.631629536229999</v>
-      </c>
-      <c r="S22">
-        <v>0.01775535945255656</v>
-      </c>
-      <c r="T22">
-        <v>0.02843181299948154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H23">
-        <v>6.190555</v>
-      </c>
-      <c r="I23">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J23">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.8056465</v>
-      </c>
-      <c r="N23">
-        <v>3.611293</v>
-      </c>
-      <c r="O23">
-        <v>0.2783940211582334</v>
-      </c>
-      <c r="P23">
-        <v>0.2295746037219218</v>
-      </c>
-      <c r="Q23">
-        <v>3.725984656269166</v>
-      </c>
-      <c r="R23">
-        <v>22.355907937615</v>
-      </c>
-      <c r="S23">
-        <v>0.07801817018951547</v>
-      </c>
-      <c r="T23">
-        <v>0.0832874539963438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H24">
-        <v>6.190555</v>
-      </c>
-      <c r="I24">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J24">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.197361</v>
-      </c>
-      <c r="N24">
-        <v>3.592083000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.1846087501446399</v>
-      </c>
-      <c r="P24">
-        <v>0.2283533989796044</v>
-      </c>
-      <c r="Q24">
-        <v>2.470776375118333</v>
-      </c>
-      <c r="R24">
-        <v>22.236987376065</v>
-      </c>
-      <c r="S24">
-        <v>0.05173543895568066</v>
-      </c>
-      <c r="T24">
-        <v>0.08284441268364232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H25">
-        <v>6.190555</v>
-      </c>
-      <c r="I25">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J25">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.9978816666666667</v>
-      </c>
-      <c r="N25">
-        <v>2.993645</v>
-      </c>
-      <c r="O25">
-        <v>0.1538530879789666</v>
-      </c>
-      <c r="P25">
-        <v>0.1903099151907953</v>
-      </c>
-      <c r="Q25">
-        <v>2.059147113663889</v>
-      </c>
-      <c r="R25">
-        <v>18.532324022975</v>
-      </c>
-      <c r="S25">
-        <v>0.04311635843394448</v>
-      </c>
-      <c r="T25">
-        <v>0.06904260336086954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.171751</v>
-      </c>
-      <c r="I26">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J26">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.921801</v>
-      </c>
-      <c r="N26">
-        <v>3.843602</v>
-      </c>
-      <c r="O26">
-        <v>0.2963026861879742</v>
-      </c>
-      <c r="P26">
-        <v>0.2443427896918877</v>
-      </c>
-      <c r="Q26">
-        <v>0.1100237478503333</v>
-      </c>
-      <c r="R26">
-        <v>0.6601424871019999</v>
-      </c>
-      <c r="S26">
-        <v>0.002303780685256676</v>
-      </c>
-      <c r="T26">
-        <v>0.002459376160385344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.171751</v>
-      </c>
-      <c r="I27">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J27">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.1523196666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.456959</v>
-      </c>
-      <c r="O27">
-        <v>0.02348459928608122</v>
-      </c>
-      <c r="P27">
-        <v>0.02904947932559493</v>
-      </c>
-      <c r="Q27">
-        <v>0.008720351689888887</v>
-      </c>
-      <c r="R27">
-        <v>0.07848316520899999</v>
-      </c>
-      <c r="S27">
-        <v>0.0001825949232263912</v>
-      </c>
-      <c r="T27">
-        <v>0.0002923908539108697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.171751</v>
-      </c>
-      <c r="I28">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J28">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.4109286666666667</v>
-      </c>
-      <c r="N28">
-        <v>1.232786</v>
-      </c>
-      <c r="O28">
-        <v>0.06335685524410488</v>
-      </c>
-      <c r="P28">
-        <v>0.07836981309019599</v>
-      </c>
-      <c r="Q28">
-        <v>0.02352580314288889</v>
-      </c>
-      <c r="R28">
-        <v>0.211732228286</v>
-      </c>
-      <c r="S28">
-        <v>0.0004926053869703188</v>
-      </c>
-      <c r="T28">
-        <v>0.00078881333167607</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.171751</v>
-      </c>
-      <c r="I29">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J29">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.8056465</v>
-      </c>
-      <c r="N29">
-        <v>3.611293</v>
-      </c>
-      <c r="O29">
-        <v>0.2783940211582334</v>
-      </c>
-      <c r="P29">
-        <v>0.2295746037219218</v>
-      </c>
-      <c r="Q29">
-        <v>0.1033738640071667</v>
-      </c>
-      <c r="R29">
-        <v>0.6202431840429999</v>
-      </c>
-      <c r="S29">
-        <v>0.002164539164617626</v>
-      </c>
-      <c r="T29">
-        <v>0.002310730380608208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.171751</v>
-      </c>
-      <c r="I30">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J30">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.197361</v>
-      </c>
-      <c r="N30">
-        <v>3.592083000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.1846087501446399</v>
-      </c>
-      <c r="P30">
-        <v>0.2283533989796044</v>
-      </c>
-      <c r="Q30">
-        <v>0.06854931637033333</v>
-      </c>
-      <c r="R30">
-        <v>0.616943847333</v>
-      </c>
-      <c r="S30">
-        <v>0.001435350041486928</v>
-      </c>
-      <c r="T30">
-        <v>0.002298438625103605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.171751</v>
-      </c>
-      <c r="I31">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J31">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.9978816666666667</v>
-      </c>
-      <c r="N31">
-        <v>2.993645</v>
-      </c>
-      <c r="O31">
-        <v>0.1538530879789666</v>
-      </c>
-      <c r="P31">
-        <v>0.1903099151907953</v>
-      </c>
-      <c r="Q31">
-        <v>0.05712905804388888</v>
-      </c>
-      <c r="R31">
-        <v>0.5141615223949999</v>
-      </c>
-      <c r="S31">
-        <v>0.001196221934445038</v>
-      </c>
-      <c r="T31">
-        <v>0.00191552068753653</v>
+        <v>0.002675800135657184</v>
       </c>
     </row>
   </sheetData>
